--- a/visualization/Materials Cost vs Strength.xlsx
+++ b/visualization/Materials Cost vs Strength.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\Project 2018\sample\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE35F917-B33D-4A7C-8642-2A291449CEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B1FA69-442E-41F6-B6C1-CD66BE2CC808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DBDEA51-147E-47E3-9A83-391283686F86}"/>
   </bookViews>
@@ -161,95 +161,6 @@
     <t>Steel, stainless austenitic 304</t>
   </si>
   <si>
-    <t>Shear Modulus (GPa)</t>
-  </si>
-  <si>
-    <t>Yield Stress (MPa)</t>
-  </si>
-  <si>
-    <t>UTS (MPa)</t>
-  </si>
-  <si>
-    <t>Breaking strain (%)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fracture Toughness (MN m </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-3/2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Thermal Expension (10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C)</t>
-    </r>
-  </si>
-  <si>
     <t>Density</t>
   </si>
   <si>
@@ -263,13 +174,31 @@
   </si>
   <si>
     <t>Source:</t>
+  </si>
+  <si>
+    <t>Shear Modulus</t>
+  </si>
+  <si>
+    <t>Yield Stress</t>
+  </si>
+  <si>
+    <t>UTS</t>
+  </si>
+  <si>
+    <t>Breaking strain</t>
+  </si>
+  <si>
+    <t>Fracture Toughness</t>
+  </si>
+  <si>
+    <t>Thermal Expension</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,22 +213,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -344,7 +257,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -355,7 +268,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -675,7 +588,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,34 +613,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2003,12 +1916,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
